--- a/output/output_simulated_data_offline.xlsx
+++ b/output/output_simulated_data_offline.xlsx
@@ -461,82 +461,82 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>CO2 In (Predicted NN)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CO2 In (Predicted GL)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CO2 In (Predicted Combined)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Temperature In (Predicted NN)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Temperature In (Predicted GL)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Temperature In (Predicted Combined)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RH In (Predicted NN)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RH In (Predicted GL)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RH In (Predicted Combined)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>PAR In (Predicted NN)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>PAR In (Predicted GL)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>PAR In (Predicted Combined)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>CO2 In (Actual)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CO2 In (Predicted NN)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CO2 In (Predicted GL)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CO2 In (Predicted Combined)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Temperature In (Actual)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Temperature In (Predicted NN)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Temperature In (Predicted GL)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Temperature In (Predicted Combined)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>RH In (Actual)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>RH In (Predicted NN)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>RH In (Predicted GL)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>RH In (Predicted Combined)</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>PAR In (Actual)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>PAR In (Predicted NN)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>PAR In (Predicted GL)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>PAR In (Predicted Combined)</t>
         </is>
       </c>
     </row>
@@ -557,52 +557,52 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G2" t="n">
+        <v>389.4715567464067</v>
+      </c>
+      <c r="H2" t="n">
+        <v>393.7923278808594</v>
+      </c>
+      <c r="I2" t="n">
+        <v>20.8583927154541</v>
+      </c>
+      <c r="J2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20.84824562072754</v>
+      </c>
+      <c r="L2" t="n">
+        <v>53.66983795166016</v>
+      </c>
+      <c r="M2" t="n">
+        <v>90</v>
+      </c>
+      <c r="N2" t="n">
+        <v>53.66983795166016</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.599868178367615</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.009270455265</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.599868178367615</v>
+      </c>
+      <c r="R2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H2" t="n">
-        <v>389.4715567464067</v>
-      </c>
-      <c r="I2" t="n">
-        <v>393.7923278808594</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="S2" t="n">
         <v>20.20873341205442</v>
       </c>
-      <c r="K2" t="n">
-        <v>20.8583927154541</v>
-      </c>
-      <c r="L2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20.84824562072754</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>52.16515164647899</v>
       </c>
-      <c r="O2" t="n">
-        <v>53.66983795166016</v>
-      </c>
-      <c r="P2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>53.66983795166016</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
         <v>1.6669</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.599868178367615</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.009270455265</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.599868178367615</v>
       </c>
     </row>
     <row r="3">
@@ -622,52 +622,52 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G3" t="n">
+        <v>393.8975402298897</v>
+      </c>
+      <c r="H3" t="n">
+        <v>393.7944946289062</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20.83408546447754</v>
+      </c>
+      <c r="J3" t="n">
+        <v>19.39889966757405</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20.83073043823242</v>
+      </c>
+      <c r="L3" t="n">
+        <v>53.69011688232422</v>
+      </c>
+      <c r="M3" t="n">
+        <v>76.21920387256024</v>
+      </c>
+      <c r="N3" t="n">
+        <v>53.69011688232422</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.59879994392395</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.009270455265</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.59879994392395</v>
+      </c>
+      <c r="R3" t="n">
         <v>400</v>
       </c>
-      <c r="G3" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H3" t="n">
-        <v>393.8975402298897</v>
-      </c>
-      <c r="I3" t="n">
-        <v>393.7944946289062</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="S3" t="n">
         <v>20.34465492886569</v>
       </c>
-      <c r="K3" t="n">
-        <v>20.83408546447754</v>
-      </c>
-      <c r="L3" t="n">
-        <v>19.39889966757405</v>
-      </c>
-      <c r="M3" t="n">
-        <v>20.83073043823242</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>52.04829959494126</v>
       </c>
-      <c r="O3" t="n">
-        <v>53.69011688232422</v>
-      </c>
-      <c r="P3" t="n">
-        <v>76.21920387256024</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>53.69011688232422</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>1.653733333333333</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.59879994392395</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.009270455265</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.59879994392395</v>
       </c>
     </row>
     <row r="4">
@@ -687,52 +687,52 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G4" t="n">
+        <v>394.8073494521416</v>
+      </c>
+      <c r="H4" t="n">
+        <v>393.794921875</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20.75528717041016</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19.68418852253284</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.75275611877441</v>
+      </c>
+      <c r="L4" t="n">
+        <v>53.9846305847168</v>
+      </c>
+      <c r="M4" t="n">
+        <v>76.05737704416541</v>
+      </c>
+      <c r="N4" t="n">
+        <v>53.9846305847168</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.603059530258179</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.009270455265</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.603059530258179</v>
+      </c>
+      <c r="R4" t="n">
         <v>400</v>
       </c>
-      <c r="G4" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H4" t="n">
-        <v>394.8073494521416</v>
-      </c>
-      <c r="I4" t="n">
-        <v>393.794921875</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="S4" t="n">
         <v>20.49458909546665</v>
       </c>
-      <c r="K4" t="n">
-        <v>20.75528717041016</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19.68418852253284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20.75275611877441</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>51.71112379360767</v>
       </c>
-      <c r="O4" t="n">
-        <v>53.9846305847168</v>
-      </c>
-      <c r="P4" t="n">
-        <v>76.05737704416541</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>53.9846305847168</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="U4" t="n">
         <v>1.6511</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.603059530258179</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.009270455265</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.603059530258179</v>
       </c>
     </row>
     <row r="5">
@@ -752,52 +752,52 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G5" t="n">
+        <v>395.4218429139412</v>
+      </c>
+      <c r="H5" t="n">
+        <v>393.7952270507812</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20.7533073425293</v>
+      </c>
+      <c r="J5" t="n">
+        <v>19.75140297133205</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20.7508487701416</v>
+      </c>
+      <c r="L5" t="n">
+        <v>54.18680191040039</v>
+      </c>
+      <c r="M5" t="n">
+        <v>76.90331933894862</v>
+      </c>
+      <c r="N5" t="n">
+        <v>54.18680191040039</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.609099864959717</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.009270455265</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.609099864959717</v>
+      </c>
+      <c r="R5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H5" t="n">
-        <v>395.4218429139412</v>
-      </c>
-      <c r="I5" t="n">
-        <v>393.7952270507812</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="S5" t="n">
         <v>20.59492849118978</v>
       </c>
-      <c r="K5" t="n">
-        <v>20.7533073425293</v>
-      </c>
-      <c r="L5" t="n">
-        <v>19.75140297133205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>20.7508487701416</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>51.62190222570504</v>
       </c>
-      <c r="O5" t="n">
-        <v>54.18680191040039</v>
-      </c>
-      <c r="P5" t="n">
-        <v>76.90331933894862</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>54.18680191040039</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>1.645175</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.609099864959717</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.009270455265</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.609099864959717</v>
       </c>
     </row>
     <row r="6">
@@ -817,52 +817,52 @@
         <v>-0.02142682222655821</v>
       </c>
       <c r="F6" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G6" t="n">
+        <v>393.897535813318</v>
+      </c>
+      <c r="H6" t="n">
+        <v>393.7944946289062</v>
+      </c>
+      <c r="I6" t="n">
+        <v>20.82138442993164</v>
+      </c>
+      <c r="J6" t="n">
+        <v>19.39889966757405</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20.81523513793945</v>
+      </c>
+      <c r="L6" t="n">
+        <v>54.23400497436523</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76.21920387256026</v>
+      </c>
+      <c r="N6" t="n">
+        <v>54.23400497436523</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.620399236679077</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.620399236679077</v>
+      </c>
+      <c r="R6" t="n">
         <v>400</v>
       </c>
-      <c r="G6" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H6" t="n">
-        <v>393.897535813318</v>
-      </c>
-      <c r="I6" t="n">
-        <v>393.7944946289062</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="S6" t="n">
         <v>20.94767145870525</v>
       </c>
-      <c r="K6" t="n">
-        <v>20.82138442993164</v>
-      </c>
-      <c r="L6" t="n">
-        <v>19.39889966757405</v>
-      </c>
-      <c r="M6" t="n">
-        <v>20.81523513793945</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>50.87312022319749</v>
       </c>
-      <c r="O6" t="n">
-        <v>54.23400497436523</v>
-      </c>
-      <c r="P6" t="n">
-        <v>76.21920387256026</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>54.23400497436523</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="U6" t="n">
         <v>1.63925</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.620399236679077</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.753246358879458</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.620399236679077</v>
       </c>
     </row>
     <row r="7">
@@ -882,52 +882,52 @@
         <v>-0.02142682222655821</v>
       </c>
       <c r="F7" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G7" t="n">
+        <v>395.3209981301848</v>
+      </c>
+      <c r="H7" t="n">
+        <v>393.7951965332031</v>
+      </c>
+      <c r="I7" t="n">
+        <v>20.81525802612305</v>
+      </c>
+      <c r="J7" t="n">
+        <v>20.97962965360195</v>
+      </c>
+      <c r="K7" t="n">
+        <v>20.97265434265137</v>
+      </c>
+      <c r="L7" t="n">
+        <v>54.16747283935547</v>
+      </c>
+      <c r="M7" t="n">
+        <v>72.36253542745442</v>
+      </c>
+      <c r="N7" t="n">
+        <v>54.16747283935547</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.627144336700439</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.627144336700439</v>
+      </c>
+      <c r="R7" t="n">
         <v>400</v>
       </c>
-      <c r="G7" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H7" t="n">
-        <v>395.3209981301848</v>
-      </c>
-      <c r="I7" t="n">
-        <v>393.7951965332031</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="S7" t="n">
         <v>20.97729974927206</v>
       </c>
-      <c r="K7" t="n">
-        <v>20.81525802612305</v>
-      </c>
-      <c r="L7" t="n">
-        <v>20.97962965360195</v>
-      </c>
-      <c r="M7" t="n">
-        <v>20.97265434265137</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>50.85692690761616</v>
       </c>
-      <c r="O7" t="n">
-        <v>54.16747283935547</v>
-      </c>
-      <c r="P7" t="n">
-        <v>72.36253542745442</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>54.16747283935547</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="U7" t="n">
         <v>1.637275</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.627144336700439</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.753246358879458</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.627144336700439</v>
       </c>
     </row>
     <row r="8">
@@ -947,52 +947,52 @@
         <v>-0.02142682222655821</v>
       </c>
       <c r="F8" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G8" t="n">
+        <v>394.8415213539323</v>
+      </c>
+      <c r="H8" t="n">
+        <v>393.7949523925781</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20.83423805236816</v>
+      </c>
+      <c r="J8" t="n">
+        <v>21.16587945342224</v>
+      </c>
+      <c r="K8" t="n">
+        <v>21.14772415161133</v>
+      </c>
+      <c r="L8" t="n">
+        <v>54.07421493530273</v>
+      </c>
+      <c r="M8" t="n">
+        <v>74.5508982099239</v>
+      </c>
+      <c r="N8" t="n">
+        <v>54.07421493530273</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.625289916992188</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.625289916992188</v>
+      </c>
+      <c r="R8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H8" t="n">
-        <v>394.8415213539323</v>
-      </c>
-      <c r="I8" t="n">
-        <v>393.7949523925781</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="S8" t="n">
         <v>20.99346273506138</v>
       </c>
-      <c r="K8" t="n">
-        <v>20.83423805236816</v>
-      </c>
-      <c r="L8" t="n">
-        <v>21.16587945342224</v>
-      </c>
-      <c r="M8" t="n">
-        <v>21.14772415161133</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>50.85460022562864</v>
       </c>
-      <c r="O8" t="n">
-        <v>54.07421493530273</v>
-      </c>
-      <c r="P8" t="n">
-        <v>74.5508982099239</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>54.07421493530273</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="U8" t="n">
         <v>1.6353</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.625289916992188</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.753246358879458</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.625289916992188</v>
       </c>
     </row>
     <row r="9">
@@ -1012,52 +1012,52 @@
         <v>-0.02142682222655821</v>
       </c>
       <c r="F9" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G9" t="n">
+        <v>394.1695940610277</v>
+      </c>
+      <c r="H9" t="n">
+        <v>393.7946166992188</v>
+      </c>
+      <c r="I9" t="n">
+        <v>20.8353099822998</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21.18353060489365</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21.14326858520508</v>
+      </c>
+      <c r="L9" t="n">
+        <v>54.00647354125977</v>
+      </c>
+      <c r="M9" t="n">
+        <v>77.30342638272327</v>
+      </c>
+      <c r="N9" t="n">
+        <v>54.00647354125977</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.624088048934937</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.624088048934937</v>
+      </c>
+      <c r="R9" t="n">
         <v>400</v>
       </c>
-      <c r="G9" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H9" t="n">
-        <v>394.1695940610277</v>
-      </c>
-      <c r="I9" t="n">
-        <v>393.7946166992188</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="S9" t="n">
         <v>21.00012353066995</v>
       </c>
-      <c r="K9" t="n">
-        <v>20.8353099822998</v>
-      </c>
-      <c r="L9" t="n">
-        <v>21.18353060489365</v>
-      </c>
-      <c r="M9" t="n">
-        <v>21.14326858520508</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>50.88517936266207</v>
       </c>
-      <c r="O9" t="n">
-        <v>54.00647354125977</v>
-      </c>
-      <c r="P9" t="n">
-        <v>77.30342638272327</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>54.00647354125977</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
         <v>1.63925</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.624088048934937</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.753246358879458</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.624088048934937</v>
       </c>
     </row>
     <row r="10">
@@ -1077,52 +1077,52 @@
         <v>-0.02428752918838427</v>
       </c>
       <c r="F10" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G10" t="n">
+        <v>395.3209936976525</v>
+      </c>
+      <c r="H10" t="n">
+        <v>393.7951965332031</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20.84009170532227</v>
+      </c>
+      <c r="J10" t="n">
+        <v>20.97962965360195</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20.94889450073242</v>
+      </c>
+      <c r="L10" t="n">
+        <v>53.98510360717773</v>
+      </c>
+      <c r="M10" t="n">
+        <v>72.36253542745442</v>
+      </c>
+      <c r="N10" t="n">
+        <v>53.98510360717773</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.622097015380859</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.622097015380859</v>
+      </c>
+      <c r="R10" t="n">
         <v>400</v>
       </c>
-      <c r="G10" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H10" t="n">
-        <v>395.3209936976525</v>
-      </c>
-      <c r="I10" t="n">
-        <v>393.7951965332031</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="S10" t="n">
         <v>21.01453597994696</v>
       </c>
-      <c r="K10" t="n">
-        <v>20.84009170532227</v>
-      </c>
-      <c r="L10" t="n">
-        <v>20.97962965360195</v>
-      </c>
-      <c r="M10" t="n">
-        <v>20.94889450073242</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="T10" t="n">
         <v>50.89053962562512</v>
       </c>
-      <c r="O10" t="n">
-        <v>53.98510360717773</v>
-      </c>
-      <c r="P10" t="n">
-        <v>72.36253542745442</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>53.98510360717773</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="U10" t="n">
         <v>1.63925</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.622097015380859</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.753246358879458</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.622097015380859</v>
       </c>
     </row>
     <row r="11">
@@ -1142,52 +1142,52 @@
         <v>-0.02428752918838427</v>
       </c>
       <c r="F11" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G11" t="n">
+        <v>395.7393576232489</v>
+      </c>
+      <c r="H11" t="n">
+        <v>393.7953796386719</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20.81966018676758</v>
+      </c>
+      <c r="J11" t="n">
+        <v>21.63977274338889</v>
+      </c>
+      <c r="K11" t="n">
+        <v>21.38227844238281</v>
+      </c>
+      <c r="L11" t="n">
+        <v>53.95707321166992</v>
+      </c>
+      <c r="M11" t="n">
+        <v>72.65840428894917</v>
+      </c>
+      <c r="N11" t="n">
+        <v>53.95707321166992</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.620779752731323</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.620779752731323</v>
+      </c>
+      <c r="R11" t="n">
         <v>400</v>
       </c>
-      <c r="G11" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H11" t="n">
-        <v>395.7393576232489</v>
-      </c>
-      <c r="I11" t="n">
-        <v>393.7953796386719</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="S11" t="n">
         <v>21.00780691323162</v>
       </c>
-      <c r="K11" t="n">
-        <v>20.81966018676758</v>
-      </c>
-      <c r="L11" t="n">
-        <v>21.63977274338889</v>
-      </c>
-      <c r="M11" t="n">
-        <v>21.38227844238281</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="T11" t="n">
         <v>50.92372511910661</v>
       </c>
-      <c r="O11" t="n">
-        <v>53.95707321166992</v>
-      </c>
-      <c r="P11" t="n">
-        <v>72.65840428894917</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>53.95707321166992</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="U11" t="n">
         <v>1.637275</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.620779752731323</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.753246358879458</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.620779752731323</v>
       </c>
     </row>
     <row r="12">
@@ -1207,52 +1207,52 @@
         <v>-0.02428752918838427</v>
       </c>
       <c r="F12" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G12" t="n">
+        <v>395.2241558863792</v>
+      </c>
+      <c r="H12" t="n">
+        <v>393.7951354980469</v>
+      </c>
+      <c r="I12" t="n">
+        <v>20.82952117919922</v>
+      </c>
+      <c r="J12" t="n">
+        <v>21.68183698681931</v>
+      </c>
+      <c r="K12" t="n">
+        <v>21.36264419555664</v>
+      </c>
+      <c r="L12" t="n">
+        <v>53.90279769897461</v>
+      </c>
+      <c r="M12" t="n">
+        <v>75.39095694077668</v>
+      </c>
+      <c r="N12" t="n">
+        <v>53.90279769897461</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.623854875564575</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.623854875564575</v>
+      </c>
+      <c r="R12" t="n">
         <v>400</v>
       </c>
-      <c r="G12" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H12" t="n">
-        <v>395.2241558863792</v>
-      </c>
-      <c r="I12" t="n">
-        <v>393.7951354980469</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="S12" t="n">
         <v>21.03320260536372</v>
       </c>
-      <c r="K12" t="n">
-        <v>20.82952117919922</v>
-      </c>
-      <c r="L12" t="n">
-        <v>21.68183698681931</v>
-      </c>
-      <c r="M12" t="n">
-        <v>21.36264419555664</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="T12" t="n">
         <v>50.96634840713728</v>
       </c>
-      <c r="O12" t="n">
-        <v>53.90279769897461</v>
-      </c>
-      <c r="P12" t="n">
-        <v>75.39095694077668</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>53.90279769897461</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="U12" t="n">
         <v>1.637933333333333</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.623854875564575</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.753246358879458</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.623854875564575</v>
       </c>
     </row>
     <row r="13">
@@ -1272,52 +1272,52 @@
         <v>-0.02428752918838427</v>
       </c>
       <c r="F13" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G13" t="n">
+        <v>394.6914983019022</v>
+      </c>
+      <c r="H13" t="n">
+        <v>393.7948608398438</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20.84026336669922</v>
+      </c>
+      <c r="J13" t="n">
+        <v>21.694790755477</v>
+      </c>
+      <c r="K13" t="n">
+        <v>21.34514617919922</v>
+      </c>
+      <c r="L13" t="n">
+        <v>53.86587524414062</v>
+      </c>
+      <c r="M13" t="n">
+        <v>78.06038688960432</v>
+      </c>
+      <c r="N13" t="n">
+        <v>53.86587524414062</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.625966787338257</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.625966787338257</v>
+      </c>
+      <c r="R13" t="n">
         <v>400</v>
       </c>
-      <c r="G13" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H13" t="n">
-        <v>394.6914983019022</v>
-      </c>
-      <c r="I13" t="n">
-        <v>393.7948608398438</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="S13" t="n">
         <v>21.03447778002737</v>
       </c>
-      <c r="K13" t="n">
-        <v>20.84026336669922</v>
-      </c>
-      <c r="L13" t="n">
-        <v>21.694790755477</v>
-      </c>
-      <c r="M13" t="n">
-        <v>21.34514617919922</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="T13" t="n">
         <v>50.78922103394486</v>
       </c>
-      <c r="O13" t="n">
-        <v>53.86587524414062</v>
-      </c>
-      <c r="P13" t="n">
-        <v>78.06038688960432</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>53.86587524414062</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="U13" t="n">
         <v>1.63925</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.625966787338257</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.753246358879458</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.625966787338257</v>
       </c>
     </row>
     <row r="14">
@@ -1337,52 +1337,52 @@
         <v>-0.02549251665574502</v>
       </c>
       <c r="F14" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G14" t="n">
+        <v>395.7393531860258</v>
+      </c>
+      <c r="H14" t="n">
+        <v>393.7953796386719</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20.8209228515625</v>
+      </c>
+      <c r="J14" t="n">
+        <v>21.63977274338889</v>
+      </c>
+      <c r="K14" t="n">
+        <v>21.28791046142578</v>
+      </c>
+      <c r="L14" t="n">
+        <v>53.88797760009766</v>
+      </c>
+      <c r="M14" t="n">
+        <v>72.65840428894919</v>
+      </c>
+      <c r="N14" t="n">
+        <v>53.88797760009766</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.626354455947876</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.626354455947876</v>
+      </c>
+      <c r="R14" t="n">
         <v>400</v>
       </c>
-      <c r="G14" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H14" t="n">
-        <v>395.7393531860258</v>
-      </c>
-      <c r="I14" t="n">
-        <v>393.7953796386719</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="S14" t="n">
         <v>21.03998197807523</v>
       </c>
-      <c r="K14" t="n">
-        <v>20.8209228515625</v>
-      </c>
-      <c r="L14" t="n">
-        <v>21.63977274338889</v>
-      </c>
-      <c r="M14" t="n">
-        <v>21.28791046142578</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="T14" t="n">
         <v>50.77637929085419</v>
       </c>
-      <c r="O14" t="n">
-        <v>53.88797760009766</v>
-      </c>
-      <c r="P14" t="n">
-        <v>72.65840428894919</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>53.88797760009766</v>
-      </c>
-      <c r="R14" t="n">
+      <c r="U14" t="n">
         <v>1.63925</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.626354455947876</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.753246358879458</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.626354455947876</v>
       </c>
     </row>
     <row r="15">
@@ -1402,52 +1402,52 @@
         <v>-0.02549251665574502</v>
       </c>
       <c r="F15" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G15" t="n">
+        <v>395.7202818812882</v>
+      </c>
+      <c r="H15" t="n">
+        <v>393.7953796386719</v>
+      </c>
+      <c r="I15" t="n">
+        <v>20.81622695922852</v>
+      </c>
+      <c r="J15" t="n">
+        <v>21.9060318600473</v>
+      </c>
+      <c r="K15" t="n">
+        <v>21.4246711730957</v>
+      </c>
+      <c r="L15" t="n">
+        <v>53.84268951416016</v>
+      </c>
+      <c r="M15" t="n">
+        <v>74.55619062043634</v>
+      </c>
+      <c r="N15" t="n">
+        <v>53.84268951416016</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.626864552497864</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.626864552497864</v>
+      </c>
+      <c r="R15" t="n">
         <v>400</v>
       </c>
-      <c r="G15" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H15" t="n">
-        <v>395.7202818812882</v>
-      </c>
-      <c r="I15" t="n">
-        <v>393.7953796386719</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="S15" t="n">
         <v>21.04336088512209</v>
       </c>
-      <c r="K15" t="n">
-        <v>20.81622695922852</v>
-      </c>
-      <c r="L15" t="n">
-        <v>21.9060318600473</v>
-      </c>
-      <c r="M15" t="n">
-        <v>21.4246711730957</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="T15" t="n">
         <v>50.89024438158336</v>
       </c>
-      <c r="O15" t="n">
-        <v>53.84268951416016</v>
-      </c>
-      <c r="P15" t="n">
-        <v>74.55619062043634</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>53.84268951416016</v>
-      </c>
-      <c r="R15" t="n">
+      <c r="U15" t="n">
         <v>1.63925</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.626864552497864</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.753246358879458</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.626864552497864</v>
       </c>
     </row>
     <row r="16">
@@ -1467,52 +1467,52 @@
         <v>-0.02549251665574502</v>
       </c>
       <c r="F16" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G16" t="n">
+        <v>395.2049329109977</v>
+      </c>
+      <c r="H16" t="n">
+        <v>393.7951354980469</v>
+      </c>
+      <c r="I16" t="n">
+        <v>20.82685279846191</v>
+      </c>
+      <c r="J16" t="n">
+        <v>21.89344940836112</v>
+      </c>
+      <c r="K16" t="n">
+        <v>21.41334915161133</v>
+      </c>
+      <c r="L16" t="n">
+        <v>53.83301162719727</v>
+      </c>
+      <c r="M16" t="n">
+        <v>77.38359586118884</v>
+      </c>
+      <c r="N16" t="n">
+        <v>53.83301162719727</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.629770278930664</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.629770278930664</v>
+      </c>
+      <c r="R16" t="n">
         <v>400</v>
       </c>
-      <c r="G16" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H16" t="n">
-        <v>395.2049329109977</v>
-      </c>
-      <c r="I16" t="n">
-        <v>393.7951354980469</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="S16" t="n">
         <v>21.03826018746186</v>
       </c>
-      <c r="K16" t="n">
-        <v>20.82685279846191</v>
-      </c>
-      <c r="L16" t="n">
-        <v>21.89344940836112</v>
-      </c>
-      <c r="M16" t="n">
-        <v>21.41334915161133</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="T16" t="n">
         <v>50.96181087595832</v>
       </c>
-      <c r="O16" t="n">
-        <v>53.83301162719727</v>
-      </c>
-      <c r="P16" t="n">
-        <v>77.38359586118884</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>53.83301162719727</v>
-      </c>
-      <c r="R16" t="n">
+      <c r="U16" t="n">
         <v>1.63925</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.629770278930664</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.753246358879458</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.629770278930664</v>
       </c>
     </row>
     <row r="17">
@@ -1532,52 +1532,52 @@
         <v>-0.02549251665574502</v>
       </c>
       <c r="F17" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G17" t="n">
+        <v>394.6982060941875</v>
+      </c>
+      <c r="H17" t="n">
+        <v>393.7948913574219</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20.83223915100098</v>
+      </c>
+      <c r="J17" t="n">
+        <v>21.87427229906129</v>
+      </c>
+      <c r="K17" t="n">
+        <v>21.39900970458984</v>
+      </c>
+      <c r="L17" t="n">
+        <v>53.75917816162109</v>
+      </c>
+      <c r="M17" t="n">
+        <v>80.02599230419328</v>
+      </c>
+      <c r="N17" t="n">
+        <v>53.75917816162109</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.634332418441772</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.634332418441772</v>
+      </c>
+      <c r="R17" t="n">
         <v>400</v>
       </c>
-      <c r="G17" t="n">
-        <v>393.79443359375</v>
-      </c>
-      <c r="H17" t="n">
-        <v>394.6982060941875</v>
-      </c>
-      <c r="I17" t="n">
-        <v>393.7948913574219</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="S17" t="n">
         <v>21.0420964899371</v>
       </c>
-      <c r="K17" t="n">
-        <v>20.83223915100098</v>
-      </c>
-      <c r="L17" t="n">
-        <v>21.87427229906129</v>
-      </c>
-      <c r="M17" t="n">
-        <v>21.39900970458984</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="T17" t="n">
         <v>51.04427205110598</v>
       </c>
-      <c r="O17" t="n">
-        <v>53.75917816162109</v>
-      </c>
-      <c r="P17" t="n">
-        <v>80.02599230419328</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>53.75917816162109</v>
-      </c>
-      <c r="R17" t="n">
+      <c r="U17" t="n">
         <v>1.63925</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.634332418441772</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.753246358879458</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.634332418441772</v>
       </c>
     </row>
   </sheetData>

--- a/output/output_simulated_data_offline.xlsx
+++ b/output/output_simulated_data_offline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1580,6 +1580,786 @@
         <v>1.63925</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.02589133865184522</v>
+      </c>
+      <c r="F18" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G18" t="n">
+        <v>395.720277444279</v>
+      </c>
+      <c r="H18" t="n">
+        <v>393.7953796386719</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20.85106086730957</v>
+      </c>
+      <c r="J18" t="n">
+        <v>21.9060318600473</v>
+      </c>
+      <c r="K18" t="n">
+        <v>21.42024993896484</v>
+      </c>
+      <c r="L18" t="n">
+        <v>53.80360412597656</v>
+      </c>
+      <c r="M18" t="n">
+        <v>74.55619062043633</v>
+      </c>
+      <c r="N18" t="n">
+        <v>53.80360412597656</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.64277195930481</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.64277195930481</v>
+      </c>
+      <c r="R18" t="n">
+        <v>400</v>
+      </c>
+      <c r="S18" t="n">
+        <v>21.02386570101565</v>
+      </c>
+      <c r="T18" t="n">
+        <v>50.73561603332475</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.63925</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.02589133865184522</v>
+      </c>
+      <c r="F19" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G19" t="n">
+        <v>395.4554605582848</v>
+      </c>
+      <c r="H19" t="n">
+        <v>393.7952575683594</v>
+      </c>
+      <c r="I19" t="n">
+        <v>20.85170555114746</v>
+      </c>
+      <c r="J19" t="n">
+        <v>21.95919121404069</v>
+      </c>
+      <c r="K19" t="n">
+        <v>21.4454231262207</v>
+      </c>
+      <c r="L19" t="n">
+        <v>53.73841857910156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>77.25520396924321</v>
+      </c>
+      <c r="N19" t="n">
+        <v>53.73841857910156</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.648123621940613</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.648123621940613</v>
+      </c>
+      <c r="R19" t="n">
+        <v>400</v>
+      </c>
+      <c r="S19" t="n">
+        <v>21.03198133034893</v>
+      </c>
+      <c r="T19" t="n">
+        <v>50.80485205926722</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.63925</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.02589133865184522</v>
+      </c>
+      <c r="F20" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G20" t="n">
+        <v>394.9270652328814</v>
+      </c>
+      <c r="H20" t="n">
+        <v>393.7949829101562</v>
+      </c>
+      <c r="I20" t="n">
+        <v>20.85770416259766</v>
+      </c>
+      <c r="J20" t="n">
+        <v>21.90874293348235</v>
+      </c>
+      <c r="K20" t="n">
+        <v>21.41815185546875</v>
+      </c>
+      <c r="L20" t="n">
+        <v>53.74079132080078</v>
+      </c>
+      <c r="M20" t="n">
+        <v>80.05135745566002</v>
+      </c>
+      <c r="N20" t="n">
+        <v>53.74079132080078</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.651173949241638</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.651173949241638</v>
+      </c>
+      <c r="R20" t="n">
+        <v>400</v>
+      </c>
+      <c r="S20" t="n">
+        <v>21.03492439835391</v>
+      </c>
+      <c r="T20" t="n">
+        <v>50.67465438929317</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.6353</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.02589133865184522</v>
+      </c>
+      <c r="F21" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G21" t="n">
+        <v>394.4952244896864</v>
+      </c>
+      <c r="H21" t="n">
+        <v>393.7947692871094</v>
+      </c>
+      <c r="I21" t="n">
+        <v>20.85620498657227</v>
+      </c>
+      <c r="J21" t="n">
+        <v>21.91777397581138</v>
+      </c>
+      <c r="K21" t="n">
+        <v>21.4197940826416</v>
+      </c>
+      <c r="L21" t="n">
+        <v>53.72517013549805</v>
+      </c>
+      <c r="M21" t="n">
+        <v>82.30836977849175</v>
+      </c>
+      <c r="N21" t="n">
+        <v>53.72517013549805</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.64588463306427</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.64588463306427</v>
+      </c>
+      <c r="R21" t="n">
+        <v>400</v>
+      </c>
+      <c r="S21" t="n">
+        <v>21.03449933925149</v>
+      </c>
+      <c r="T21" t="n">
+        <v>50.97157221308606</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.6353</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.02595351192412863</v>
+      </c>
+      <c r="F22" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G22" t="n">
+        <v>395.4554561242449</v>
+      </c>
+      <c r="H22" t="n">
+        <v>393.7952575683594</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20.85307693481445</v>
+      </c>
+      <c r="J22" t="n">
+        <v>21.95919121404069</v>
+      </c>
+      <c r="K22" t="n">
+        <v>21.43817901611328</v>
+      </c>
+      <c r="L22" t="n">
+        <v>53.69776916503906</v>
+      </c>
+      <c r="M22" t="n">
+        <v>77.25520396924321</v>
+      </c>
+      <c r="N22" t="n">
+        <v>53.69776916503906</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.650556802749634</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.650556802749634</v>
+      </c>
+      <c r="R22" t="n">
+        <v>400</v>
+      </c>
+      <c r="S22" t="n">
+        <v>21.03830330421236</v>
+      </c>
+      <c r="T22" t="n">
+        <v>50.69720672778764</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.636616666666667</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.02595351192412863</v>
+      </c>
+      <c r="F23" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G23" t="n">
+        <v>395.1721384114802</v>
+      </c>
+      <c r="H23" t="n">
+        <v>393.7951049804688</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20.84575653076172</v>
+      </c>
+      <c r="J23" t="n">
+        <v>21.98307220568238</v>
+      </c>
+      <c r="K23" t="n">
+        <v>21.44550704956055</v>
+      </c>
+      <c r="L23" t="n">
+        <v>53.71715545654297</v>
+      </c>
+      <c r="M23" t="n">
+        <v>79.90490832020177</v>
+      </c>
+      <c r="N23" t="n">
+        <v>53.71715545654297</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.653978824615479</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.653978824615479</v>
+      </c>
+      <c r="R23" t="n">
+        <v>400</v>
+      </c>
+      <c r="S23" t="n">
+        <v>21.03700657083391</v>
+      </c>
+      <c r="T23" t="n">
+        <v>50.57297699337158</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.637275</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.02595351192412863</v>
+      </c>
+      <c r="F24" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G24" t="n">
+        <v>394.6595917536392</v>
+      </c>
+      <c r="H24" t="n">
+        <v>393.7948608398438</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20.86370086669922</v>
+      </c>
+      <c r="J24" t="n">
+        <v>21.92500826988255</v>
+      </c>
+      <c r="K24" t="n">
+        <v>21.42190170288086</v>
+      </c>
+      <c r="L24" t="n">
+        <v>53.63594818115234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>82.50714421290616</v>
+      </c>
+      <c r="N24" t="n">
+        <v>53.63594818115234</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.65619945526123</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.65619945526123</v>
+      </c>
+      <c r="R24" t="n">
+        <v>400</v>
+      </c>
+      <c r="S24" t="n">
+        <v>21.02300839875534</v>
+      </c>
+      <c r="T24" t="n">
+        <v>50.40976523532517</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.636616666666667</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.02595351192412863</v>
+      </c>
+      <c r="F25" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G25" t="n">
+        <v>394.2053980332198</v>
+      </c>
+      <c r="H25" t="n">
+        <v>393.7946472167969</v>
+      </c>
+      <c r="I25" t="n">
+        <v>20.87457084655762</v>
+      </c>
+      <c r="J25" t="n">
+        <v>21.89966522430889</v>
+      </c>
+      <c r="K25" t="n">
+        <v>21.41254425048828</v>
+      </c>
+      <c r="L25" t="n">
+        <v>53.59566497802734</v>
+      </c>
+      <c r="M25" t="n">
+        <v>84.69844944499691</v>
+      </c>
+      <c r="N25" t="n">
+        <v>53.59566497802734</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.662029266357422</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.662029266357422</v>
+      </c>
+      <c r="R25" t="n">
+        <v>400</v>
+      </c>
+      <c r="S25" t="n">
+        <v>21.016668455537</v>
+      </c>
+      <c r="T25" t="n">
+        <v>50.71032798025819</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.63925</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.02596851188668779</v>
+      </c>
+      <c r="F26" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G26" t="n">
+        <v>395.1721339806171</v>
+      </c>
+      <c r="H26" t="n">
+        <v>393.7951049804688</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20.8687686920166</v>
+      </c>
+      <c r="J26" t="n">
+        <v>21.98307220568238</v>
+      </c>
+      <c r="K26" t="n">
+        <v>21.4525089263916</v>
+      </c>
+      <c r="L26" t="n">
+        <v>53.57375335693359</v>
+      </c>
+      <c r="M26" t="n">
+        <v>79.90490832020178</v>
+      </c>
+      <c r="N26" t="n">
+        <v>53.57375335693359</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.661708950996399</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.661708950996399</v>
+      </c>
+      <c r="R26" t="n">
+        <v>400</v>
+      </c>
+      <c r="S26" t="n">
+        <v>21.0306594424687</v>
+      </c>
+      <c r="T26" t="n">
+        <v>50.50588047367383</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.63925</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.02596851188668779</v>
+      </c>
+      <c r="F27" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G27" t="n">
+        <v>394.8566111674057</v>
+      </c>
+      <c r="H27" t="n">
+        <v>393.7949523925781</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20.884033203125</v>
+      </c>
+      <c r="J27" t="n">
+        <v>21.97170544887955</v>
+      </c>
+      <c r="K27" t="n">
+        <v>21.45294189453125</v>
+      </c>
+      <c r="L27" t="n">
+        <v>53.57630157470703</v>
+      </c>
+      <c r="M27" t="n">
+        <v>82.51400668820797</v>
+      </c>
+      <c r="N27" t="n">
+        <v>53.57630157470703</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.662889719009399</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.662889719009399</v>
+      </c>
+      <c r="R27" t="n">
+        <v>400</v>
+      </c>
+      <c r="S27" t="n">
+        <v>21.00521344540757</v>
+      </c>
+      <c r="T27" t="n">
+        <v>50.58283207959067</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.63925</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.02596851188668779</v>
+      </c>
+      <c r="F28" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G28" t="n">
+        <v>394.3665252130789</v>
+      </c>
+      <c r="H28" t="n">
+        <v>393.7947082519531</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20.88093566894531</v>
+      </c>
+      <c r="J28" t="n">
+        <v>21.9140822631777</v>
+      </c>
+      <c r="K28" t="n">
+        <v>21.42060470581055</v>
+      </c>
+      <c r="L28" t="n">
+        <v>53.50544738769531</v>
+      </c>
+      <c r="M28" t="n">
+        <v>84.85573318594672</v>
+      </c>
+      <c r="N28" t="n">
+        <v>53.50544738769531</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.666810870170593</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.666810870170593</v>
+      </c>
+      <c r="R28" t="n">
+        <v>400</v>
+      </c>
+      <c r="S28" t="n">
+        <v>21.00612105448866</v>
+      </c>
+      <c r="T28" t="n">
+        <v>50.48521509443287</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.63925</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.02596851188668779</v>
+      </c>
+      <c r="F29" t="n">
+        <v>393.79443359375</v>
+      </c>
+      <c r="G29" t="n">
+        <v>393.9419071928118</v>
+      </c>
+      <c r="H29" t="n">
+        <v>393.7944946289062</v>
+      </c>
+      <c r="I29" t="n">
+        <v>20.89557456970215</v>
+      </c>
+      <c r="J29" t="n">
+        <v>21.89472215812042</v>
+      </c>
+      <c r="K29" t="n">
+        <v>21.41690254211426</v>
+      </c>
+      <c r="L29" t="n">
+        <v>53.41579818725586</v>
+      </c>
+      <c r="M29" t="n">
+        <v>86.75320228667478</v>
+      </c>
+      <c r="N29" t="n">
+        <v>53.41579818725586</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.665271997451782</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.753246358879458</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.665271997451782</v>
+      </c>
+      <c r="R29" t="n">
+        <v>400</v>
+      </c>
+      <c r="S29" t="n">
+        <v>21.01284293241915</v>
+      </c>
+      <c r="T29" t="n">
+        <v>50.28880636117213</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.63925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/output_simulated_data_offline.xlsx
+++ b/output/output_simulated_data_offline.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CO2 In (Predicted NN)</t>
+          <t>CO2 In (Predicted DNN)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Temperature In (Predicted NN)</t>
+          <t>Temperature In (Predicted DNN)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>RH In (Predicted NN)</t>
+          <t>RH In (Predicted DNN)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>PAR In (Predicted NN)</t>
+          <t>PAR In (Predicted DNN)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Leaf Temp (Predicted NN)</t>
+          <t>Leaf Temp (Predicted DNN)</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
